--- a/Excel/_模板.xlsx
+++ b/Excel/_模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitProject\SimCity\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93444077-1D6F-4B75-A03D-19805D7EB806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05DBB0E-DE4C-4B7F-ADBC-4F34A9475116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="585" windowWidth="22905" windowHeight="14685" tabRatio="799" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="840" windowWidth="21270" windowHeight="11385" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test#测试表" sheetId="17" r:id="rId1"/>
@@ -410,7 +410,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +420,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,13 +750,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -806,7 +800,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -816,7 +810,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -832,7 +826,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -912,82 +906,82 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1019,7 +1013,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1051,14 +1045,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,93 +1128,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1164,7 +1158,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1177,7 +1171,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1186,234 +1180,234 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1465,47 +1459,47 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1581,7 +1575,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -2309,16 +2303,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -2742,127 +2736,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -3227,121 +3221,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -3706,7 +3700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -3905,7 +3899,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -4178,28 +4172,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -4493,7 +4487,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -4605,7 +4599,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -4905,7 +4899,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -4916,16 +4910,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -5040,19 +5034,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -5099,184 +5093,184 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -5330,349 +5324,349 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -6077,7 +6071,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -6291,535 +6285,535 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -6996,145 +6990,145 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -7552,7 +7546,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -7637,22 +7631,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7703,61 +7697,61 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7781,31 +7775,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7814,170 +7790,188 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8044,14 +8038,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -11215,7 +11201,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_6" displayName="表1_6" ref="A4:U5" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_6" displayName="表1_6" ref="A4:U5" totalsRowShown="0">
   <autoFilter ref="A4:U5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="20"/>
@@ -11504,9 +11490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11522,7 +11508,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -11777,26 +11763,26 @@
     </row>
     <row r="5" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
@@ -11812,9 +11798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
